--- a/Validation/model_metrics_summary.xlsx
+++ b/Validation/model_metrics_summary.xlsx
@@ -1,37 +1,90 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
   <workbookPr/>
-  <workbookProtection/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://mailmissouri-my.sharepoint.com/personal/smncd_umsystem_edu/Documents/MS_T/Research/LRF_RC/Validation/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="1" documentId="11_2B59D2BFD3F0D57C93358491453088B35299F657" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A777DB3D-5E66-482B-B244-914A62FFCB92}"/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+  <si>
+    <t>Sheet</t>
+  </si>
+  <si>
+    <t>NSE</t>
+  </si>
+  <si>
+    <t>NNSE</t>
+  </si>
+  <si>
+    <t>MSE</t>
+  </si>
+  <si>
+    <t>MAE</t>
+  </si>
+  <si>
+    <t>KGE</t>
+  </si>
+  <si>
+    <t>rNSE</t>
+  </si>
+  <si>
+    <t>rMAE</t>
+  </si>
+  <si>
+    <t>MAPE (%)</t>
+  </si>
+  <si>
+    <t>NRMSE</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>Method_1</t>
+  </si>
+  <si>
+    <t>Method_2</t>
+  </si>
+  <si>
+    <t>Method_3</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b val="1"/>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -46,93 +99,43 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -420,184 +423,158 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="10" bestFit="1" customWidth="1"/>
+    <col min="2" max="9" width="12" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="7" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>Sheet</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>NSE</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>NNSE</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>MSE</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>MAE</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>KGE</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>rNSE</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>rMAE</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>MAPE (%)</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>NRMSE</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
-        <is>
-          <t>N</t>
-        </is>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>Method_1</t>
-        </is>
-      </c>
-      <c r="B2" t="n">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2">
         <v>0.999745545652451</v>
       </c>
-      <c r="C2" t="n">
-        <v>0.9997456103829951</v>
-      </c>
-      <c r="D2" t="n">
-        <v>7455895.963416857</v>
-      </c>
-      <c r="E2" t="n">
-        <v>1825.262622215305</v>
-      </c>
-      <c r="F2" t="n">
-        <v>0.993740073544348</v>
-      </c>
-      <c r="G2" t="n">
-        <v>0.9999276860469389</v>
-      </c>
-      <c r="H2" t="n">
-        <v>0.6942019993368502</v>
-      </c>
-      <c r="I2" t="n">
-        <v>0.6942019993368502</v>
-      </c>
-      <c r="J2" t="n">
-        <v>0.3127418000361921</v>
-      </c>
-      <c r="K2" t="n">
+      <c r="C2">
+        <v>0.99974561038299514</v>
+      </c>
+      <c r="D2">
+        <v>7455895.9634168567</v>
+      </c>
+      <c r="E2">
+        <v>1825.2626222153051</v>
+      </c>
+      <c r="F2">
+        <v>0.99374007354434801</v>
+      </c>
+      <c r="G2">
+        <v>0.99992768604693893</v>
+      </c>
+      <c r="H2">
+        <v>0.69420199933685023</v>
+      </c>
+      <c r="I2">
+        <v>0.69420199933685023</v>
+      </c>
+      <c r="J2">
+        <v>0.31274180003619212</v>
+      </c>
+      <c r="K2">
         <v>106822</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>Method_2</t>
-        </is>
-      </c>
-      <c r="B3" t="n">
-        <v>0.9990837481946072</v>
-      </c>
-      <c r="C3" t="n">
-        <v>0.999084586943473</v>
-      </c>
-      <c r="D3" t="n">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3">
+        <v>0.99908374819460721</v>
+      </c>
+      <c r="C3">
+        <v>0.99908458694347302</v>
+      </c>
+      <c r="D3">
         <v>26847559.11268042</v>
       </c>
-      <c r="E3" t="n">
-        <v>4562.601231604274</v>
-      </c>
-      <c r="F3" t="n">
-        <v>0.9812937016076393</v>
-      </c>
-      <c r="G3" t="n">
-        <v>0.9997396083396275</v>
-      </c>
-      <c r="H3" t="n">
-        <v>1.975156991740549</v>
-      </c>
-      <c r="I3" t="n">
-        <v>1.975156991740549</v>
-      </c>
-      <c r="J3" t="n">
-        <v>0.5934558502127387</v>
-      </c>
-      <c r="K3" t="n">
+      <c r="E3">
+        <v>4562.6012316042743</v>
+      </c>
+      <c r="F3">
+        <v>0.98129370160763929</v>
+      </c>
+      <c r="G3">
+        <v>0.99973960833962749</v>
+      </c>
+      <c r="H3">
+        <v>1.9751569917405489</v>
+      </c>
+      <c r="I3">
+        <v>1.9751569917405489</v>
+      </c>
+      <c r="J3">
+        <v>0.59345585021273872</v>
+      </c>
+      <c r="K3">
         <v>106822</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>Method_3</t>
-        </is>
-      </c>
-      <c r="B4" t="n">
-        <v>0.999799689145722</v>
-      </c>
-      <c r="C4" t="n">
-        <v>0.9997997292621248</v>
-      </c>
-      <c r="D4" t="n">
-        <v>5869409.991322518</v>
-      </c>
-      <c r="E4" t="n">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B4">
+        <v>0.99979968914572204</v>
+      </c>
+      <c r="C4">
+        <v>0.99979972926212479</v>
+      </c>
+      <c r="D4">
+        <v>5869409.9913225183</v>
+      </c>
+      <c r="E4">
         <v>1875.320824200069</v>
       </c>
-      <c r="F4" t="n">
-        <v>0.9934757532982035</v>
-      </c>
-      <c r="G4" t="n">
-        <v>0.99994307320801</v>
-      </c>
-      <c r="H4" t="n">
-        <v>0.7922857187625577</v>
-      </c>
-      <c r="I4" t="n">
-        <v>0.7922857187625577</v>
-      </c>
-      <c r="J4" t="n">
-        <v>0.2774809899823515</v>
-      </c>
-      <c r="K4" t="n">
+      <c r="F4">
+        <v>0.99347575329820348</v>
+      </c>
+      <c r="G4">
+        <v>0.99994307320801001</v>
+      </c>
+      <c r="H4">
+        <v>0.79228571876255771</v>
+      </c>
+      <c r="I4">
+        <v>0.79228571876255771</v>
+      </c>
+      <c r="J4">
+        <v>0.27748098998235149</v>
+      </c>
+      <c r="K4">
         <v>106822</v>
       </c>
     </row>

--- a/Validation/model_metrics_summary.xlsx
+++ b/Validation/model_metrics_summary.xlsx
@@ -1,21 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
-  <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://mailmissouri-my.sharepoint.com/personal/smncd_umsystem_edu/Documents/MS_T/Research/LRF_RC/Validation/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="11_2B59D2BFD3F0D57C93358491453088B35299F657" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A777DB3D-5E66-482B-B244-914A62FFCB92}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
@@ -67,8 +61,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -79,7 +73,10 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -128,14 +125,6 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -423,22 +412,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:K4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="10" bestFit="1" customWidth="1"/>
-    <col min="2" max="9" width="12" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="7" bestFit="1" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -473,7 +454,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11">
       <c r="A2" t="s">
         <v>11</v>
       </c>
@@ -481,104 +462,104 @@
         <v>0.999745545652451</v>
       </c>
       <c r="C2">
-        <v>0.99974561038299514</v>
+        <v>0.9997456103829951</v>
       </c>
       <c r="D2">
-        <v>7455895.9634168567</v>
+        <v>7455895.963416857</v>
       </c>
       <c r="E2">
-        <v>1825.2626222153051</v>
+        <v>1825.262622215305</v>
       </c>
       <c r="F2">
-        <v>0.99374007354434801</v>
+        <v>0.993740073544348</v>
       </c>
       <c r="G2">
-        <v>0.99992768604693893</v>
+        <v>0.9999276860469389</v>
       </c>
       <c r="H2">
-        <v>0.69420199933685023</v>
+        <v>0.6942019993368502</v>
       </c>
       <c r="I2">
-        <v>0.69420199933685023</v>
+        <v>0.6942019993368502</v>
       </c>
       <c r="J2">
-        <v>0.31274180003619212</v>
+        <v>0.3127418000361921</v>
       </c>
       <c r="K2">
         <v>106822</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11">
       <c r="A3" t="s">
         <v>12</v>
       </c>
       <c r="B3">
-        <v>0.99908374819460721</v>
+        <v>0.9990837481946072</v>
       </c>
       <c r="C3">
-        <v>0.99908458694347302</v>
+        <v>0.999084586943473</v>
       </c>
       <c r="D3">
         <v>26847559.11268042</v>
       </c>
       <c r="E3">
-        <v>4562.6012316042743</v>
+        <v>4562.601231604274</v>
       </c>
       <c r="F3">
-        <v>0.98129370160763929</v>
+        <v>0.9812937016076393</v>
       </c>
       <c r="G3">
-        <v>0.99973960833962749</v>
+        <v>0.9997396083396275</v>
       </c>
       <c r="H3">
-        <v>1.9751569917405489</v>
+        <v>1.975156991740549</v>
       </c>
       <c r="I3">
-        <v>1.9751569917405489</v>
+        <v>1.975156991740549</v>
       </c>
       <c r="J3">
-        <v>0.59345585021273872</v>
+        <v>0.5934558502127387</v>
       </c>
       <c r="K3">
         <v>106822</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11">
       <c r="A4" t="s">
         <v>13</v>
       </c>
       <c r="B4">
-        <v>0.99979968914572204</v>
+        <v>0.999799689145722</v>
       </c>
       <c r="C4">
-        <v>0.99979972926212479</v>
+        <v>0.9997997292621248</v>
       </c>
       <c r="D4">
-        <v>5869409.9913225183</v>
+        <v>5869409.991322518</v>
       </c>
       <c r="E4">
         <v>1875.320824200069</v>
       </c>
       <c r="F4">
-        <v>0.99347575329820348</v>
+        <v>0.9934757532982035</v>
       </c>
       <c r="G4">
-        <v>0.99994307320801001</v>
+        <v>0.99994307320801</v>
       </c>
       <c r="H4">
-        <v>0.79228571876255771</v>
+        <v>0.7922857187625577</v>
       </c>
       <c r="I4">
-        <v>0.79228571876255771</v>
+        <v>0.7922857187625577</v>
       </c>
       <c r="J4">
-        <v>0.27748098998235149</v>
+        <v>0.2774809899823515</v>
       </c>
       <c r="K4">
         <v>106822</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Validation/model_metrics_summary.xlsx
+++ b/Validation/model_metrics_summary.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t>Sheet</t>
   </si>
@@ -56,6 +56,9 @@
   </si>
   <si>
     <t>Method_3</t>
+  </si>
+  <si>
+    <t>Method</t>
   </si>
 </sst>
 </file>
@@ -413,7 +416,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K4"/>
+  <dimension ref="A1:K5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -559,6 +562,41 @@
         <v>106822</v>
       </c>
     </row>
+    <row r="5" spans="1:11">
+      <c r="A5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B5">
+        <v>0.9949715634984005</v>
+      </c>
+      <c r="C5">
+        <v>0.9949967221633021</v>
+      </c>
+      <c r="D5">
+        <v>147340769.6732198</v>
+      </c>
+      <c r="E5">
+        <v>5509.050019388131</v>
+      </c>
+      <c r="F5">
+        <v>0.9634307661821588</v>
+      </c>
+      <c r="G5">
+        <v>0.9985709573263347</v>
+      </c>
+      <c r="H5">
+        <v>1.361060513652995</v>
+      </c>
+      <c r="I5">
+        <v>1.361060513652995</v>
+      </c>
+      <c r="J5">
+        <v>1.390264645806614</v>
+      </c>
+      <c r="K5">
+        <v>106822</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Validation/model_metrics_summary.xlsx
+++ b/Validation/model_metrics_summary.xlsx
@@ -49,13 +49,13 @@
     <t>N</t>
   </si>
   <si>
-    <t>Method_1</t>
+    <t>RT 1</t>
   </si>
   <si>
     <t>Method_2</t>
   </si>
   <si>
-    <t>Method_3</t>
+    <t>RT 2</t>
   </si>
   <si>
     <t>Method</t>
@@ -462,31 +462,31 @@
         <v>11</v>
       </c>
       <c r="B2">
-        <v>0.999745545652451</v>
+        <v>0.9998331094471394</v>
       </c>
       <c r="C2">
-        <v>0.9997456103829951</v>
+        <v>0.9998331372949486</v>
       </c>
       <c r="D2">
-        <v>7455895.963416857</v>
+        <v>4890144.779960912</v>
       </c>
       <c r="E2">
-        <v>1825.262622215305</v>
+        <v>1705.750741902049</v>
       </c>
       <c r="F2">
-        <v>0.993740073544348</v>
+        <v>0.9937355762568342</v>
       </c>
       <c r="G2">
-        <v>0.9999276860469389</v>
+        <v>0.999952570998601</v>
       </c>
       <c r="H2">
-        <v>0.6942019993368502</v>
+        <v>0.6426351682342851</v>
       </c>
       <c r="I2">
-        <v>0.6942019993368502</v>
+        <v>0.6426351682342851</v>
       </c>
       <c r="J2">
-        <v>0.3127418000361921</v>
+        <v>0.2532776514016759</v>
       </c>
       <c r="K2">
         <v>106822</v>
@@ -532,31 +532,31 @@
         <v>13</v>
       </c>
       <c r="B4">
-        <v>0.999799689145722</v>
+        <v>0.9998900102930725</v>
       </c>
       <c r="C4">
-        <v>0.9997997292621248</v>
+        <v>0.9998900223894774</v>
       </c>
       <c r="D4">
-        <v>5869409.991322518</v>
+        <v>3222864.218267034</v>
       </c>
       <c r="E4">
-        <v>1875.320824200069</v>
+        <v>1555.080283259607</v>
       </c>
       <c r="F4">
-        <v>0.9934757532982035</v>
+        <v>0.9934346571111102</v>
       </c>
       <c r="G4">
-        <v>0.99994307320801</v>
+        <v>0.9999687417779237</v>
       </c>
       <c r="H4">
-        <v>0.7922857187625577</v>
+        <v>0.7050910742470046</v>
       </c>
       <c r="I4">
-        <v>0.7922857187625577</v>
+        <v>0.7050910742470046</v>
       </c>
       <c r="J4">
-        <v>0.2774809899823515</v>
+        <v>0.2056160520346074</v>
       </c>
       <c r="K4">
         <v>106822</v>
